--- a/activities/fishery/fishery_info.xlsx
+++ b/activities/fishery/fishery_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TU\Desktop\FishonTestProjectRepository\activities\fishery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E5F81-54BE-4DC8-B18D-5D189AE74C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E55D5-3E01-4377-AE7E-FB3524B99BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +119,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFE0300"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -213,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -224,16 +216,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -528,55 +517,55 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -914,7 +903,7 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
         <v>1</v>
@@ -925,130 +914,142 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>9302102</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9302102</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9303103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9303103</v>
+      </c>
+      <c r="E11" s="1">
         <v>9301102</v>
       </c>
-      <c r="B11" s="1">
+      <c r="F11" s="1">
+        <v>9301102</v>
+      </c>
+      <c r="G11" s="1">
         <v>9303103</v>
       </c>
-      <c r="C11" s="1">
-        <v>9302102</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9302102</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9303103</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9302102</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9301102</v>
-      </c>
-      <c r="H11" s="1">
-        <v>9303102</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="4">
+        <v>9302101</v>
+      </c>
+      <c r="I11" s="4">
         <v>9301101</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>9302101</v>
       </c>
-      <c r="K11" s="1">
-        <v>9303102</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="K11" s="4">
         <v>9303101</v>
       </c>
-      <c r="M11" s="1">
+      <c r="L11" s="4">
         <v>9301101</v>
       </c>
-      <c r="N11" s="1">
+      <c r="M11" s="4">
+        <v>9302101</v>
+      </c>
+      <c r="N11" s="4">
         <v>1314571</v>
       </c>
-      <c r="O11" s="1">
-        <v>1314577</v>
+      <c r="O11" s="4">
+        <v>9302101</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1314573</v>
+        <v>1314578</v>
       </c>
       <c r="B12" s="1">
+        <v>1314581</v>
+      </c>
+      <c r="C12" s="1">
         <v>9303201</v>
       </c>
-      <c r="C12" s="1">
-        <v>1314579</v>
-      </c>
       <c r="D12" s="1">
-        <v>1314580</v>
+        <v>9303401</v>
       </c>
       <c r="E12" s="1">
-        <v>9303401</v>
+        <v>1314574</v>
       </c>
       <c r="F12" s="1">
-        <v>1314581</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>1314576</v>
+      </c>
+      <c r="G12" s="7">
+        <v>9303001</v>
+      </c>
       <c r="H12" s="1">
+        <v>1314582</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1314575</v>
+      </c>
+      <c r="J12" s="7">
+        <v>9302002</v>
+      </c>
+      <c r="K12" s="8">
         <v>9303403</v>
       </c>
-      <c r="I12" s="1">
-        <v>1314574</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9">
-        <v>9303404</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="L12" s="7">
+        <v>9301002</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9302001</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9301001</v>
+      </c>
+      <c r="O12" s="7">
+        <v>9302003</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="I13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
@@ -1136,7 +1137,7 @@
       <c r="I16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K16" s="1"/>

--- a/activities/fishery/fishery_info.xlsx
+++ b/activities/fishery/fishery_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TU\Desktop\FishonTestProjectRepository\activities\fishery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E55D5-3E01-4377-AE7E-FB3524B99BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2EA73C-0439-4DA5-9AEF-58BC9EDDB4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46035" yWindow="3120" windowWidth="21600" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,51 +1007,35 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1072,50 +1056,50 @@
       <c r="H14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="E15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1126,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
@@ -1134,50 +1118,50 @@
       <c r="H16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="K16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1198,50 +1182,52 @@
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1260,18 +1246,18 @@
         <v>1</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="O20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1280,80 +1266,94 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>1</v>
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
